--- a/test.xlsx
+++ b/test.xlsx
@@ -52,9 +52,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,13 +425,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -443,22 +460,6 @@
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -473,29 +474,13 @@
           <t>Директор</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
       </c>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="n"/>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="n"/>
-      <c r="X2" s="1" t="n"/>
-      <c r="Y2" s="1" t="n"/>
-      <c r="Z2" s="1" t="n"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" ht="24" customHeight="1">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
@@ -504,29 +489,14 @@
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>(сокращенное наименование образовательного учреждения)</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
-      <c r="P3" s="1" t="n"/>
-      <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="1" t="n"/>
-      <c r="S3" s="1" t="n"/>
-      <c r="T3" s="1" t="n"/>
-      <c r="U3" s="1" t="n"/>
-      <c r="V3" s="1" t="n"/>
-      <c r="W3" s="1" t="n"/>
-      <c r="X3" s="1" t="n"/>
-      <c r="Y3" s="1" t="n"/>
-      <c r="Z3" s="1" t="n"/>
-    </row>
-    <row r="4">
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>(сокращенное наименование
+образовательного учреждения)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
@@ -539,27 +509,11 @@
           <t>_____________</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
       </c>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
-      <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
-      <c r="R4" s="1" t="n"/>
-      <c r="S4" s="1" t="n"/>
-      <c r="T4" s="1" t="n"/>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="1" t="n"/>
-      <c r="W4" s="1" t="n"/>
-      <c r="X4" s="1" t="n"/>
-      <c r="Y4" s="1" t="n"/>
-      <c r="Z4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -579,22 +533,6 @@
           <t>(расшифровка подписи)</t>
         </is>
       </c>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="1" t="n"/>
-      <c r="R5" s="1" t="n"/>
-      <c r="S5" s="1" t="n"/>
-      <c r="T5" s="1" t="n"/>
-      <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-      <c r="Y5" s="1" t="n"/>
-      <c r="Z5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -607,22 +545,6 @@
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
-      <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="1" t="n"/>
-      <c r="S6" s="1" t="n"/>
-      <c r="T6" s="1" t="n"/>
-      <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
-      <c r="W6" s="1" t="n"/>
-      <c r="X6" s="1" t="n"/>
-      <c r="Y6" s="1" t="n"/>
-      <c r="Z6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -639,22 +561,6 @@
       </c>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
-      <c r="P7" s="1" t="n"/>
-      <c r="Q7" s="1" t="n"/>
-      <c r="R7" s="1" t="n"/>
-      <c r="S7" s="1" t="n"/>
-      <c r="T7" s="1" t="n"/>
-      <c r="U7" s="1" t="n"/>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
-      <c r="X7" s="1" t="n"/>
-      <c r="Y7" s="1" t="n"/>
-      <c r="Z7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -671,22 +577,6 @@
       </c>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
-      <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="1" t="n"/>
-      <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
-      <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="1" t="n"/>
-      <c r="X8" s="1" t="n"/>
-      <c r="Y8" s="1" t="n"/>
-      <c r="Z8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -699,110 +589,30 @@
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="1" t="n"/>
-      <c r="R9" s="1" t="n"/>
-      <c r="S9" s="1" t="n"/>
-      <c r="T9" s="1" t="n"/>
-      <c r="U9" s="1" t="n"/>
-      <c r="V9" s="1" t="n"/>
-      <c r="W9" s="1" t="n"/>
-      <c r="X9" s="1" t="n"/>
-      <c r="Y9" s="1" t="n"/>
-      <c r="Z9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="P10" s="1" t="n"/>
-      <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
-      <c r="S10" s="1" t="n"/>
-      <c r="T10" s="1" t="n"/>
-      <c r="U10" s="1" t="n"/>
-      <c r="V10" s="1" t="n"/>
-      <c r="W10" s="1" t="n"/>
-      <c r="X10" s="1" t="n"/>
-      <c r="Y10" s="1" t="n"/>
-      <c r="Z10" s="1" t="n"/>
+      <c r="A10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>за период с 01.05.2022 по 31.05.2022</t>
         </is>
       </c>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
-      <c r="P11" s="1" t="n"/>
-      <c r="Q11" s="1" t="n"/>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="1" t="n"/>
-      <c r="T11" s="1" t="n"/>
-      <c r="U11" s="1" t="n"/>
-      <c r="V11" s="1" t="n"/>
-      <c r="W11" s="1" t="n"/>
-      <c r="X11" s="1" t="n"/>
-      <c r="Y11" s="1" t="n"/>
-      <c r="Z11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Отчёт о фактическом предоставленном бесплатном питании</t>
         </is>
       </c>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
-      <c r="P12" s="1" t="n"/>
-      <c r="Q12" s="1" t="n"/>
-      <c r="R12" s="1" t="n"/>
-      <c r="S12" s="1" t="n"/>
-      <c r="T12" s="1" t="n"/>
-      <c r="U12" s="1" t="n"/>
-      <c r="V12" s="1" t="n"/>
-      <c r="W12" s="1" t="n"/>
-      <c r="X12" s="1" t="n"/>
-      <c r="Y12" s="1" t="n"/>
-      <c r="Z12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>(сокращенное наименование образовательного учреждения)</t>
         </is>
       </c>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
-      <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="1" t="n"/>
-      <c r="R13" s="1" t="n"/>
-      <c r="S13" s="1" t="n"/>
-      <c r="T13" s="1" t="n"/>
-      <c r="U13" s="1" t="n"/>
-      <c r="V13" s="1" t="n"/>
-      <c r="W13" s="1" t="n"/>
-      <c r="X13" s="1" t="n"/>
-      <c r="Y13" s="1" t="n"/>
-      <c r="Z13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -815,113 +625,73 @@
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
-      <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
-      <c r="P14" s="1" t="n"/>
-      <c r="Q14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
-      <c r="S14" s="1" t="n"/>
-      <c r="T14" s="1" t="n"/>
-      <c r="U14" s="1" t="n"/>
-      <c r="V14" s="1" t="n"/>
-      <c r="W14" s="1" t="n"/>
-      <c r="X14" s="1" t="n"/>
-      <c r="Y14" s="1" t="n"/>
-      <c r="Z14" s="1" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    </row>
+    <row r="15" ht="39" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>№ счета</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Класс</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Ф.И. ребенка</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>Дни посещения</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>Остаток на начало месяца, руб.</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>Поступило в текущем месяце на питание, руб.</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>Израсходовано в текущем месяце на питание, руб.</t>
-        </is>
-      </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>Остаток на конец месяца, руб.</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
-      <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="1" t="n"/>
-      <c r="S15" s="1" t="n"/>
-      <c r="T15" s="1" t="n"/>
-      <c r="U15" s="1" t="n"/>
-      <c r="V15" s="1" t="n"/>
-      <c r="W15" s="1" t="n"/>
-      <c r="X15" s="1" t="n"/>
-      <c r="Y15" s="1" t="n"/>
-      <c r="Z15" s="1" t="n"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="1" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Остаток на
+начало месяца,
+руб.</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Поступило в
+текущем месяце
+на питание, руб.</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>Израсходовано в
+текущем месяце
+на питание, руб.</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>Остаток на
+конец месяца,
+руб.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>плановые</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>фактические</t>
         </is>
       </c>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
-      <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
-      <c r="R16" s="1" t="n"/>
-      <c r="S16" s="1" t="n"/>
-      <c r="T16" s="1" t="n"/>
-      <c r="U16" s="1" t="n"/>
-      <c r="V16" s="1" t="n"/>
-      <c r="W16" s="1" t="n"/>
-      <c r="X16" s="1" t="n"/>
-      <c r="Y16" s="1" t="n"/>
-      <c r="Z16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -934,22 +704,6 @@
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
-      <c r="P17" s="1" t="n"/>
-      <c r="Q17" s="1" t="n"/>
-      <c r="R17" s="1" t="n"/>
-      <c r="S17" s="1" t="n"/>
-      <c r="T17" s="1" t="n"/>
-      <c r="U17" s="1" t="n"/>
-      <c r="V17" s="1" t="n"/>
-      <c r="W17" s="1" t="n"/>
-      <c r="X17" s="1" t="n"/>
-      <c r="Y17" s="1" t="n"/>
-      <c r="Z17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -962,22 +716,6 @@
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
-      <c r="P18" s="1" t="n"/>
-      <c r="Q18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
-      <c r="S18" s="1" t="n"/>
-      <c r="T18" s="1" t="n"/>
-      <c r="U18" s="1" t="n"/>
-      <c r="V18" s="1" t="n"/>
-      <c r="W18" s="1" t="n"/>
-      <c r="X18" s="1" t="n"/>
-      <c r="Y18" s="1" t="n"/>
-      <c r="Z18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -990,22 +728,6 @@
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
-      <c r="P19" s="1" t="n"/>
-      <c r="Q19" s="1" t="n"/>
-      <c r="R19" s="1" t="n"/>
-      <c r="S19" s="1" t="n"/>
-      <c r="T19" s="1" t="n"/>
-      <c r="U19" s="1" t="n"/>
-      <c r="V19" s="1" t="n"/>
-      <c r="W19" s="1" t="n"/>
-      <c r="X19" s="1" t="n"/>
-      <c r="Y19" s="1" t="n"/>
-      <c r="Z19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1018,22 +740,6 @@
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
       <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
-      <c r="P20" s="1" t="n"/>
-      <c r="Q20" s="1" t="n"/>
-      <c r="R20" s="1" t="n"/>
-      <c r="S20" s="1" t="n"/>
-      <c r="T20" s="1" t="n"/>
-      <c r="U20" s="1" t="n"/>
-      <c r="V20" s="1" t="n"/>
-      <c r="W20" s="1" t="n"/>
-      <c r="X20" s="1" t="n"/>
-      <c r="Y20" s="1" t="n"/>
-      <c r="Z20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1046,22 +752,6 @@
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
       <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
-      <c r="P21" s="1" t="n"/>
-      <c r="Q21" s="1" t="n"/>
-      <c r="R21" s="1" t="n"/>
-      <c r="S21" s="1" t="n"/>
-      <c r="T21" s="1" t="n"/>
-      <c r="U21" s="1" t="n"/>
-      <c r="V21" s="1" t="n"/>
-      <c r="W21" s="1" t="n"/>
-      <c r="X21" s="1" t="n"/>
-      <c r="Y21" s="1" t="n"/>
-      <c r="Z21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1074,22 +764,6 @@
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
       <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="P22" s="1" t="n"/>
-      <c r="Q22" s="1" t="n"/>
-      <c r="R22" s="1" t="n"/>
-      <c r="S22" s="1" t="n"/>
-      <c r="T22" s="1" t="n"/>
-      <c r="U22" s="1" t="n"/>
-      <c r="V22" s="1" t="n"/>
-      <c r="W22" s="1" t="n"/>
-      <c r="X22" s="1" t="n"/>
-      <c r="Y22" s="1" t="n"/>
-      <c r="Z22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1102,22 +776,6 @@
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
-      <c r="P23" s="1" t="n"/>
-      <c r="Q23" s="1" t="n"/>
-      <c r="R23" s="1" t="n"/>
-      <c r="S23" s="1" t="n"/>
-      <c r="T23" s="1" t="n"/>
-      <c r="U23" s="1" t="n"/>
-      <c r="V23" s="1" t="n"/>
-      <c r="W23" s="1" t="n"/>
-      <c r="X23" s="1" t="n"/>
-      <c r="Y23" s="1" t="n"/>
-      <c r="Z23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1130,22 +788,6 @@
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
-      <c r="P24" s="1" t="n"/>
-      <c r="Q24" s="1" t="n"/>
-      <c r="R24" s="1" t="n"/>
-      <c r="S24" s="1" t="n"/>
-      <c r="T24" s="1" t="n"/>
-      <c r="U24" s="1" t="n"/>
-      <c r="V24" s="1" t="n"/>
-      <c r="W24" s="1" t="n"/>
-      <c r="X24" s="1" t="n"/>
-      <c r="Y24" s="1" t="n"/>
-      <c r="Z24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -1158,22 +800,6 @@
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
       <c r="J25" s="1" t="n"/>
-      <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
-      <c r="P25" s="1" t="n"/>
-      <c r="Q25" s="1" t="n"/>
-      <c r="R25" s="1" t="n"/>
-      <c r="S25" s="1" t="n"/>
-      <c r="T25" s="1" t="n"/>
-      <c r="U25" s="1" t="n"/>
-      <c r="V25" s="1" t="n"/>
-      <c r="W25" s="1" t="n"/>
-      <c r="X25" s="1" t="n"/>
-      <c r="Y25" s="1" t="n"/>
-      <c r="Z25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1186,22 +812,6 @@
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
       <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="1" t="n"/>
-      <c r="M26" s="1" t="n"/>
-      <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
-      <c r="P26" s="1" t="n"/>
-      <c r="Q26" s="1" t="n"/>
-      <c r="R26" s="1" t="n"/>
-      <c r="S26" s="1" t="n"/>
-      <c r="T26" s="1" t="n"/>
-      <c r="U26" s="1" t="n"/>
-      <c r="V26" s="1" t="n"/>
-      <c r="W26" s="1" t="n"/>
-      <c r="X26" s="1" t="n"/>
-      <c r="Y26" s="1" t="n"/>
-      <c r="Z26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1214,22 +824,6 @@
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
       <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
-      <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="1" t="n"/>
-      <c r="O27" s="1" t="n"/>
-      <c r="P27" s="1" t="n"/>
-      <c r="Q27" s="1" t="n"/>
-      <c r="R27" s="1" t="n"/>
-      <c r="S27" s="1" t="n"/>
-      <c r="T27" s="1" t="n"/>
-      <c r="U27" s="1" t="n"/>
-      <c r="V27" s="1" t="n"/>
-      <c r="W27" s="1" t="n"/>
-      <c r="X27" s="1" t="n"/>
-      <c r="Y27" s="1" t="n"/>
-      <c r="Z27" s="1" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1242,22 +836,6 @@
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
       <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
-      <c r="N28" s="1" t="n"/>
-      <c r="O28" s="1" t="n"/>
-      <c r="P28" s="1" t="n"/>
-      <c r="Q28" s="1" t="n"/>
-      <c r="R28" s="1" t="n"/>
-      <c r="S28" s="1" t="n"/>
-      <c r="T28" s="1" t="n"/>
-      <c r="U28" s="1" t="n"/>
-      <c r="V28" s="1" t="n"/>
-      <c r="W28" s="1" t="n"/>
-      <c r="X28" s="1" t="n"/>
-      <c r="Y28" s="1" t="n"/>
-      <c r="Z28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1270,22 +848,6 @@
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
       <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
-      <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
-      <c r="P29" s="1" t="n"/>
-      <c r="Q29" s="1" t="n"/>
-      <c r="R29" s="1" t="n"/>
-      <c r="S29" s="1" t="n"/>
-      <c r="T29" s="1" t="n"/>
-      <c r="U29" s="1" t="n"/>
-      <c r="V29" s="1" t="n"/>
-      <c r="W29" s="1" t="n"/>
-      <c r="X29" s="1" t="n"/>
-      <c r="Y29" s="1" t="n"/>
-      <c r="Z29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -1298,22 +860,6 @@
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
       <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
-      <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
-      <c r="P30" s="1" t="n"/>
-      <c r="Q30" s="1" t="n"/>
-      <c r="R30" s="1" t="n"/>
-      <c r="S30" s="1" t="n"/>
-      <c r="T30" s="1" t="n"/>
-      <c r="U30" s="1" t="n"/>
-      <c r="V30" s="1" t="n"/>
-      <c r="W30" s="1" t="n"/>
-      <c r="X30" s="1" t="n"/>
-      <c r="Y30" s="1" t="n"/>
-      <c r="Z30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1326,22 +872,6 @@
       <c r="H31" s="1" t="n"/>
       <c r="I31" s="1" t="n"/>
       <c r="J31" s="1" t="n"/>
-      <c r="K31" s="1" t="n"/>
-      <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n"/>
-      <c r="N31" s="1" t="n"/>
-      <c r="O31" s="1" t="n"/>
-      <c r="P31" s="1" t="n"/>
-      <c r="Q31" s="1" t="n"/>
-      <c r="R31" s="1" t="n"/>
-      <c r="S31" s="1" t="n"/>
-      <c r="T31" s="1" t="n"/>
-      <c r="U31" s="1" t="n"/>
-      <c r="V31" s="1" t="n"/>
-      <c r="W31" s="1" t="n"/>
-      <c r="X31" s="1" t="n"/>
-      <c r="Y31" s="1" t="n"/>
-      <c r="Z31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -1354,22 +884,6 @@
       <c r="H32" s="1" t="n"/>
       <c r="I32" s="1" t="n"/>
       <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
-      <c r="L32" s="1" t="n"/>
-      <c r="M32" s="1" t="n"/>
-      <c r="N32" s="1" t="n"/>
-      <c r="O32" s="1" t="n"/>
-      <c r="P32" s="1" t="n"/>
-      <c r="Q32" s="1" t="n"/>
-      <c r="R32" s="1" t="n"/>
-      <c r="S32" s="1" t="n"/>
-      <c r="T32" s="1" t="n"/>
-      <c r="U32" s="1" t="n"/>
-      <c r="V32" s="1" t="n"/>
-      <c r="W32" s="1" t="n"/>
-      <c r="X32" s="1" t="n"/>
-      <c r="Y32" s="1" t="n"/>
-      <c r="Z32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1382,22 +896,6 @@
       <c r="H33" s="1" t="n"/>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
-      <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n"/>
-      <c r="N33" s="1" t="n"/>
-      <c r="O33" s="1" t="n"/>
-      <c r="P33" s="1" t="n"/>
-      <c r="Q33" s="1" t="n"/>
-      <c r="R33" s="1" t="n"/>
-      <c r="S33" s="1" t="n"/>
-      <c r="T33" s="1" t="n"/>
-      <c r="U33" s="1" t="n"/>
-      <c r="V33" s="1" t="n"/>
-      <c r="W33" s="1" t="n"/>
-      <c r="X33" s="1" t="n"/>
-      <c r="Y33" s="1" t="n"/>
-      <c r="Z33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1410,22 +908,6 @@
       <c r="H34" s="1" t="n"/>
       <c r="I34" s="1" t="n"/>
       <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
-      <c r="P34" s="1" t="n"/>
-      <c r="Q34" s="1" t="n"/>
-      <c r="R34" s="1" t="n"/>
-      <c r="S34" s="1" t="n"/>
-      <c r="T34" s="1" t="n"/>
-      <c r="U34" s="1" t="n"/>
-      <c r="V34" s="1" t="n"/>
-      <c r="W34" s="1" t="n"/>
-      <c r="X34" s="1" t="n"/>
-      <c r="Y34" s="1" t="n"/>
-      <c r="Z34" s="1" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1438,22 +920,6 @@
       <c r="H35" s="1" t="n"/>
       <c r="I35" s="1" t="n"/>
       <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
-      <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n"/>
-      <c r="N35" s="1" t="n"/>
-      <c r="O35" s="1" t="n"/>
-      <c r="P35" s="1" t="n"/>
-      <c r="Q35" s="1" t="n"/>
-      <c r="R35" s="1" t="n"/>
-      <c r="S35" s="1" t="n"/>
-      <c r="T35" s="1" t="n"/>
-      <c r="U35" s="1" t="n"/>
-      <c r="V35" s="1" t="n"/>
-      <c r="W35" s="1" t="n"/>
-      <c r="X35" s="1" t="n"/>
-      <c r="Y35" s="1" t="n"/>
-      <c r="Z35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -1466,22 +932,6 @@
       <c r="H36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
       <c r="J36" s="1" t="n"/>
-      <c r="K36" s="1" t="n"/>
-      <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n"/>
-      <c r="O36" s="1" t="n"/>
-      <c r="P36" s="1" t="n"/>
-      <c r="Q36" s="1" t="n"/>
-      <c r="R36" s="1" t="n"/>
-      <c r="S36" s="1" t="n"/>
-      <c r="T36" s="1" t="n"/>
-      <c r="U36" s="1" t="n"/>
-      <c r="V36" s="1" t="n"/>
-      <c r="W36" s="1" t="n"/>
-      <c r="X36" s="1" t="n"/>
-      <c r="Y36" s="1" t="n"/>
-      <c r="Z36" s="1" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -1494,22 +944,6 @@
       <c r="H37" s="1" t="n"/>
       <c r="I37" s="1" t="n"/>
       <c r="J37" s="1" t="n"/>
-      <c r="K37" s="1" t="n"/>
-      <c r="L37" s="1" t="n"/>
-      <c r="M37" s="1" t="n"/>
-      <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n"/>
-      <c r="P37" s="1" t="n"/>
-      <c r="Q37" s="1" t="n"/>
-      <c r="R37" s="1" t="n"/>
-      <c r="S37" s="1" t="n"/>
-      <c r="T37" s="1" t="n"/>
-      <c r="U37" s="1" t="n"/>
-      <c r="V37" s="1" t="n"/>
-      <c r="W37" s="1" t="n"/>
-      <c r="X37" s="1" t="n"/>
-      <c r="Y37" s="1" t="n"/>
-      <c r="Z37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1522,22 +956,6 @@
       <c r="H38" s="1" t="n"/>
       <c r="I38" s="1" t="n"/>
       <c r="J38" s="1" t="n"/>
-      <c r="K38" s="1" t="n"/>
-      <c r="L38" s="1" t="n"/>
-      <c r="M38" s="1" t="n"/>
-      <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n"/>
-      <c r="P38" s="1" t="n"/>
-      <c r="Q38" s="1" t="n"/>
-      <c r="R38" s="1" t="n"/>
-      <c r="S38" s="1" t="n"/>
-      <c r="T38" s="1" t="n"/>
-      <c r="U38" s="1" t="n"/>
-      <c r="V38" s="1" t="n"/>
-      <c r="W38" s="1" t="n"/>
-      <c r="X38" s="1" t="n"/>
-      <c r="Y38" s="1" t="n"/>
-      <c r="Z38" s="1" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1550,22 +968,6 @@
       <c r="H39" s="1" t="n"/>
       <c r="I39" s="1" t="n"/>
       <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
-      <c r="L39" s="1" t="n"/>
-      <c r="M39" s="1" t="n"/>
-      <c r="N39" s="1" t="n"/>
-      <c r="O39" s="1" t="n"/>
-      <c r="P39" s="1" t="n"/>
-      <c r="Q39" s="1" t="n"/>
-      <c r="R39" s="1" t="n"/>
-      <c r="S39" s="1" t="n"/>
-      <c r="T39" s="1" t="n"/>
-      <c r="U39" s="1" t="n"/>
-      <c r="V39" s="1" t="n"/>
-      <c r="W39" s="1" t="n"/>
-      <c r="X39" s="1" t="n"/>
-      <c r="Y39" s="1" t="n"/>
-      <c r="Z39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1578,22 +980,6 @@
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
       <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
-      <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n"/>
-      <c r="N40" s="1" t="n"/>
-      <c r="O40" s="1" t="n"/>
-      <c r="P40" s="1" t="n"/>
-      <c r="Q40" s="1" t="n"/>
-      <c r="R40" s="1" t="n"/>
-      <c r="S40" s="1" t="n"/>
-      <c r="T40" s="1" t="n"/>
-      <c r="U40" s="1" t="n"/>
-      <c r="V40" s="1" t="n"/>
-      <c r="W40" s="1" t="n"/>
-      <c r="X40" s="1" t="n"/>
-      <c r="Y40" s="1" t="n"/>
-      <c r="Z40" s="1" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1606,22 +992,6 @@
       <c r="H41" s="1" t="n"/>
       <c r="I41" s="1" t="n"/>
       <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
-      <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n"/>
-      <c r="P41" s="1" t="n"/>
-      <c r="Q41" s="1" t="n"/>
-      <c r="R41" s="1" t="n"/>
-      <c r="S41" s="1" t="n"/>
-      <c r="T41" s="1" t="n"/>
-      <c r="U41" s="1" t="n"/>
-      <c r="V41" s="1" t="n"/>
-      <c r="W41" s="1" t="n"/>
-      <c r="X41" s="1" t="n"/>
-      <c r="Y41" s="1" t="n"/>
-      <c r="Z41" s="1" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1634,22 +1004,6 @@
       <c r="H42" s="1" t="n"/>
       <c r="I42" s="1" t="n"/>
       <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
-      <c r="P42" s="1" t="n"/>
-      <c r="Q42" s="1" t="n"/>
-      <c r="R42" s="1" t="n"/>
-      <c r="S42" s="1" t="n"/>
-      <c r="T42" s="1" t="n"/>
-      <c r="U42" s="1" t="n"/>
-      <c r="V42" s="1" t="n"/>
-      <c r="W42" s="1" t="n"/>
-      <c r="X42" s="1" t="n"/>
-      <c r="Y42" s="1" t="n"/>
-      <c r="Z42" s="1" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1662,22 +1016,6 @@
       <c r="H43" s="1" t="n"/>
       <c r="I43" s="1" t="n"/>
       <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-      <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
-      <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
-      <c r="P43" s="1" t="n"/>
-      <c r="Q43" s="1" t="n"/>
-      <c r="R43" s="1" t="n"/>
-      <c r="S43" s="1" t="n"/>
-      <c r="T43" s="1" t="n"/>
-      <c r="U43" s="1" t="n"/>
-      <c r="V43" s="1" t="n"/>
-      <c r="W43" s="1" t="n"/>
-      <c r="X43" s="1" t="n"/>
-      <c r="Y43" s="1" t="n"/>
-      <c r="Z43" s="1" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -1690,22 +1028,6 @@
       <c r="H44" s="1" t="n"/>
       <c r="I44" s="1" t="n"/>
       <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-      <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
-      <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
-      <c r="P44" s="1" t="n"/>
-      <c r="Q44" s="1" t="n"/>
-      <c r="R44" s="1" t="n"/>
-      <c r="S44" s="1" t="n"/>
-      <c r="T44" s="1" t="n"/>
-      <c r="U44" s="1" t="n"/>
-      <c r="V44" s="1" t="n"/>
-      <c r="W44" s="1" t="n"/>
-      <c r="X44" s="1" t="n"/>
-      <c r="Y44" s="1" t="n"/>
-      <c r="Z44" s="1" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1718,22 +1040,6 @@
       <c r="H45" s="1" t="n"/>
       <c r="I45" s="1" t="n"/>
       <c r="J45" s="1" t="n"/>
-      <c r="K45" s="1" t="n"/>
-      <c r="L45" s="1" t="n"/>
-      <c r="M45" s="1" t="n"/>
-      <c r="N45" s="1" t="n"/>
-      <c r="O45" s="1" t="n"/>
-      <c r="P45" s="1" t="n"/>
-      <c r="Q45" s="1" t="n"/>
-      <c r="R45" s="1" t="n"/>
-      <c r="S45" s="1" t="n"/>
-      <c r="T45" s="1" t="n"/>
-      <c r="U45" s="1" t="n"/>
-      <c r="V45" s="1" t="n"/>
-      <c r="W45" s="1" t="n"/>
-      <c r="X45" s="1" t="n"/>
-      <c r="Y45" s="1" t="n"/>
-      <c r="Z45" s="1" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -1746,22 +1052,6 @@
       <c r="H46" s="1" t="n"/>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n"/>
-      <c r="K46" s="1" t="n"/>
-      <c r="L46" s="1" t="n"/>
-      <c r="M46" s="1" t="n"/>
-      <c r="N46" s="1" t="n"/>
-      <c r="O46" s="1" t="n"/>
-      <c r="P46" s="1" t="n"/>
-      <c r="Q46" s="1" t="n"/>
-      <c r="R46" s="1" t="n"/>
-      <c r="S46" s="1" t="n"/>
-      <c r="T46" s="1" t="n"/>
-      <c r="U46" s="1" t="n"/>
-      <c r="V46" s="1" t="n"/>
-      <c r="W46" s="1" t="n"/>
-      <c r="X46" s="1" t="n"/>
-      <c r="Y46" s="1" t="n"/>
-      <c r="Z46" s="1" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1774,22 +1064,6 @@
       <c r="H47" s="1" t="n"/>
       <c r="I47" s="1" t="n"/>
       <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
-      <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="n"/>
-      <c r="N47" s="1" t="n"/>
-      <c r="O47" s="1" t="n"/>
-      <c r="P47" s="1" t="n"/>
-      <c r="Q47" s="1" t="n"/>
-      <c r="R47" s="1" t="n"/>
-      <c r="S47" s="1" t="n"/>
-      <c r="T47" s="1" t="n"/>
-      <c r="U47" s="1" t="n"/>
-      <c r="V47" s="1" t="n"/>
-      <c r="W47" s="1" t="n"/>
-      <c r="X47" s="1" t="n"/>
-      <c r="Y47" s="1" t="n"/>
-      <c r="Z47" s="1" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1802,22 +1076,6 @@
       <c r="H48" s="1" t="n"/>
       <c r="I48" s="1" t="n"/>
       <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
-      <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
-      <c r="N48" s="1" t="n"/>
-      <c r="O48" s="1" t="n"/>
-      <c r="P48" s="1" t="n"/>
-      <c r="Q48" s="1" t="n"/>
-      <c r="R48" s="1" t="n"/>
-      <c r="S48" s="1" t="n"/>
-      <c r="T48" s="1" t="n"/>
-      <c r="U48" s="1" t="n"/>
-      <c r="V48" s="1" t="n"/>
-      <c r="W48" s="1" t="n"/>
-      <c r="X48" s="1" t="n"/>
-      <c r="Y48" s="1" t="n"/>
-      <c r="Z48" s="1" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1830,22 +1088,6 @@
       <c r="H49" s="1" t="n"/>
       <c r="I49" s="1" t="n"/>
       <c r="J49" s="1" t="n"/>
-      <c r="K49" s="1" t="n"/>
-      <c r="L49" s="1" t="n"/>
-      <c r="M49" s="1" t="n"/>
-      <c r="N49" s="1" t="n"/>
-      <c r="O49" s="1" t="n"/>
-      <c r="P49" s="1" t="n"/>
-      <c r="Q49" s="1" t="n"/>
-      <c r="R49" s="1" t="n"/>
-      <c r="S49" s="1" t="n"/>
-      <c r="T49" s="1" t="n"/>
-      <c r="U49" s="1" t="n"/>
-      <c r="V49" s="1" t="n"/>
-      <c r="W49" s="1" t="n"/>
-      <c r="X49" s="1" t="n"/>
-      <c r="Y49" s="1" t="n"/>
-      <c r="Z49" s="1" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -1858,22 +1100,6 @@
       <c r="H50" s="1" t="n"/>
       <c r="I50" s="1" t="n"/>
       <c r="J50" s="1" t="n"/>
-      <c r="K50" s="1" t="n"/>
-      <c r="L50" s="1" t="n"/>
-      <c r="M50" s="1" t="n"/>
-      <c r="N50" s="1" t="n"/>
-      <c r="O50" s="1" t="n"/>
-      <c r="P50" s="1" t="n"/>
-      <c r="Q50" s="1" t="n"/>
-      <c r="R50" s="1" t="n"/>
-      <c r="S50" s="1" t="n"/>
-      <c r="T50" s="1" t="n"/>
-      <c r="U50" s="1" t="n"/>
-      <c r="V50" s="1" t="n"/>
-      <c r="W50" s="1" t="n"/>
-      <c r="X50" s="1" t="n"/>
-      <c r="Y50" s="1" t="n"/>
-      <c r="Z50" s="1" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -1886,22 +1112,6 @@
       <c r="H51" s="1" t="n"/>
       <c r="I51" s="1" t="n"/>
       <c r="J51" s="1" t="n"/>
-      <c r="K51" s="1" t="n"/>
-      <c r="L51" s="1" t="n"/>
-      <c r="M51" s="1" t="n"/>
-      <c r="N51" s="1" t="n"/>
-      <c r="O51" s="1" t="n"/>
-      <c r="P51" s="1" t="n"/>
-      <c r="Q51" s="1" t="n"/>
-      <c r="R51" s="1" t="n"/>
-      <c r="S51" s="1" t="n"/>
-      <c r="T51" s="1" t="n"/>
-      <c r="U51" s="1" t="n"/>
-      <c r="V51" s="1" t="n"/>
-      <c r="W51" s="1" t="n"/>
-      <c r="X51" s="1" t="n"/>
-      <c r="Y51" s="1" t="n"/>
-      <c r="Z51" s="1" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1914,22 +1124,6 @@
       <c r="H52" s="1" t="n"/>
       <c r="I52" s="1" t="n"/>
       <c r="J52" s="1" t="n"/>
-      <c r="K52" s="1" t="n"/>
-      <c r="L52" s="1" t="n"/>
-      <c r="M52" s="1" t="n"/>
-      <c r="N52" s="1" t="n"/>
-      <c r="O52" s="1" t="n"/>
-      <c r="P52" s="1" t="n"/>
-      <c r="Q52" s="1" t="n"/>
-      <c r="R52" s="1" t="n"/>
-      <c r="S52" s="1" t="n"/>
-      <c r="T52" s="1" t="n"/>
-      <c r="U52" s="1" t="n"/>
-      <c r="V52" s="1" t="n"/>
-      <c r="W52" s="1" t="n"/>
-      <c r="X52" s="1" t="n"/>
-      <c r="Y52" s="1" t="n"/>
-      <c r="Z52" s="1" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -1942,22 +1136,6 @@
       <c r="H53" s="1" t="n"/>
       <c r="I53" s="1" t="n"/>
       <c r="J53" s="1" t="n"/>
-      <c r="K53" s="1" t="n"/>
-      <c r="L53" s="1" t="n"/>
-      <c r="M53" s="1" t="n"/>
-      <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n"/>
-      <c r="P53" s="1" t="n"/>
-      <c r="Q53" s="1" t="n"/>
-      <c r="R53" s="1" t="n"/>
-      <c r="S53" s="1" t="n"/>
-      <c r="T53" s="1" t="n"/>
-      <c r="U53" s="1" t="n"/>
-      <c r="V53" s="1" t="n"/>
-      <c r="W53" s="1" t="n"/>
-      <c r="X53" s="1" t="n"/>
-      <c r="Y53" s="1" t="n"/>
-      <c r="Z53" s="1" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1970,22 +1148,6 @@
       <c r="H54" s="1" t="n"/>
       <c r="I54" s="1" t="n"/>
       <c r="J54" s="1" t="n"/>
-      <c r="K54" s="1" t="n"/>
-      <c r="L54" s="1" t="n"/>
-      <c r="M54" s="1" t="n"/>
-      <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n"/>
-      <c r="P54" s="1" t="n"/>
-      <c r="Q54" s="1" t="n"/>
-      <c r="R54" s="1" t="n"/>
-      <c r="S54" s="1" t="n"/>
-      <c r="T54" s="1" t="n"/>
-      <c r="U54" s="1" t="n"/>
-      <c r="V54" s="1" t="n"/>
-      <c r="W54" s="1" t="n"/>
-      <c r="X54" s="1" t="n"/>
-      <c r="Y54" s="1" t="n"/>
-      <c r="Z54" s="1" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -1998,22 +1160,6 @@
       <c r="H55" s="1" t="n"/>
       <c r="I55" s="1" t="n"/>
       <c r="J55" s="1" t="n"/>
-      <c r="K55" s="1" t="n"/>
-      <c r="L55" s="1" t="n"/>
-      <c r="M55" s="1" t="n"/>
-      <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n"/>
-      <c r="P55" s="1" t="n"/>
-      <c r="Q55" s="1" t="n"/>
-      <c r="R55" s="1" t="n"/>
-      <c r="S55" s="1" t="n"/>
-      <c r="T55" s="1" t="n"/>
-      <c r="U55" s="1" t="n"/>
-      <c r="V55" s="1" t="n"/>
-      <c r="W55" s="1" t="n"/>
-      <c r="X55" s="1" t="n"/>
-      <c r="Y55" s="1" t="n"/>
-      <c r="Z55" s="1" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -2026,22 +1172,6 @@
       <c r="H56" s="1" t="n"/>
       <c r="I56" s="1" t="n"/>
       <c r="J56" s="1" t="n"/>
-      <c r="K56" s="1" t="n"/>
-      <c r="L56" s="1" t="n"/>
-      <c r="M56" s="1" t="n"/>
-      <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n"/>
-      <c r="P56" s="1" t="n"/>
-      <c r="Q56" s="1" t="n"/>
-      <c r="R56" s="1" t="n"/>
-      <c r="S56" s="1" t="n"/>
-      <c r="T56" s="1" t="n"/>
-      <c r="U56" s="1" t="n"/>
-      <c r="V56" s="1" t="n"/>
-      <c r="W56" s="1" t="n"/>
-      <c r="X56" s="1" t="n"/>
-      <c r="Y56" s="1" t="n"/>
-      <c r="Z56" s="1" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -2058,22 +1188,6 @@
       <c r="H57" s="1" t="n"/>
       <c r="I57" s="1" t="n"/>
       <c r="J57" s="1" t="n"/>
-      <c r="K57" s="1" t="n"/>
-      <c r="L57" s="1" t="n"/>
-      <c r="M57" s="1" t="n"/>
-      <c r="N57" s="1" t="n"/>
-      <c r="O57" s="1" t="n"/>
-      <c r="P57" s="1" t="n"/>
-      <c r="Q57" s="1" t="n"/>
-      <c r="R57" s="1" t="n"/>
-      <c r="S57" s="1" t="n"/>
-      <c r="T57" s="1" t="n"/>
-      <c r="U57" s="1" t="n"/>
-      <c r="V57" s="1" t="n"/>
-      <c r="W57" s="1" t="n"/>
-      <c r="X57" s="1" t="n"/>
-      <c r="Y57" s="1" t="n"/>
-      <c r="Z57" s="1" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -2086,22 +1200,6 @@
       <c r="H58" s="1" t="n"/>
       <c r="I58" s="1" t="n"/>
       <c r="J58" s="1" t="n"/>
-      <c r="K58" s="1" t="n"/>
-      <c r="L58" s="1" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="N58" s="1" t="n"/>
-      <c r="O58" s="1" t="n"/>
-      <c r="P58" s="1" t="n"/>
-      <c r="Q58" s="1" t="n"/>
-      <c r="R58" s="1" t="n"/>
-      <c r="S58" s="1" t="n"/>
-      <c r="T58" s="1" t="n"/>
-      <c r="U58" s="1" t="n"/>
-      <c r="V58" s="1" t="n"/>
-      <c r="W58" s="1" t="n"/>
-      <c r="X58" s="1" t="n"/>
-      <c r="Y58" s="1" t="n"/>
-      <c r="Z58" s="1" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -2110,30 +1208,12 @@
           <t>Отчет составлен в двух экземплярах.</t>
         </is>
       </c>
-      <c r="C59" s="1" t="n"/>
-      <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="1" t="n"/>
       <c r="I59" s="1" t="n"/>
       <c r="J59" s="1" t="n"/>
-      <c r="K59" s="1" t="n"/>
-      <c r="L59" s="1" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="N59" s="1" t="n"/>
-      <c r="O59" s="1" t="n"/>
-      <c r="P59" s="1" t="n"/>
-      <c r="Q59" s="1" t="n"/>
-      <c r="R59" s="1" t="n"/>
-      <c r="S59" s="1" t="n"/>
-      <c r="T59" s="1" t="n"/>
-      <c r="U59" s="1" t="n"/>
-      <c r="V59" s="1" t="n"/>
-      <c r="W59" s="1" t="n"/>
-      <c r="X59" s="1" t="n"/>
-      <c r="Y59" s="1" t="n"/>
-      <c r="Z59" s="1" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -2146,22 +1226,6 @@
       <c r="H60" s="1" t="n"/>
       <c r="I60" s="1" t="n"/>
       <c r="J60" s="1" t="n"/>
-      <c r="K60" s="1" t="n"/>
-      <c r="L60" s="1" t="n"/>
-      <c r="M60" s="1" t="n"/>
-      <c r="N60" s="1" t="n"/>
-      <c r="O60" s="1" t="n"/>
-      <c r="P60" s="1" t="n"/>
-      <c r="Q60" s="1" t="n"/>
-      <c r="R60" s="1" t="n"/>
-      <c r="S60" s="1" t="n"/>
-      <c r="T60" s="1" t="n"/>
-      <c r="U60" s="1" t="n"/>
-      <c r="V60" s="1" t="n"/>
-      <c r="W60" s="1" t="n"/>
-      <c r="X60" s="1" t="n"/>
-      <c r="Y60" s="1" t="n"/>
-      <c r="Z60" s="1" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -2178,22 +1242,6 @@
       <c r="H61" s="1" t="n"/>
       <c r="I61" s="1" t="n"/>
       <c r="J61" s="1" t="n"/>
-      <c r="K61" s="1" t="n"/>
-      <c r="L61" s="1" t="n"/>
-      <c r="M61" s="1" t="n"/>
-      <c r="N61" s="1" t="n"/>
-      <c r="O61" s="1" t="n"/>
-      <c r="P61" s="1" t="n"/>
-      <c r="Q61" s="1" t="n"/>
-      <c r="R61" s="1" t="n"/>
-      <c r="S61" s="1" t="n"/>
-      <c r="T61" s="1" t="n"/>
-      <c r="U61" s="1" t="n"/>
-      <c r="V61" s="1" t="n"/>
-      <c r="W61" s="1" t="n"/>
-      <c r="X61" s="1" t="n"/>
-      <c r="Y61" s="1" t="n"/>
-      <c r="Z61" s="1" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -2206,177 +1254,85 @@
       <c r="H62" s="1" t="n"/>
       <c r="I62" s="1" t="n"/>
       <c r="J62" s="1" t="n"/>
-      <c r="K62" s="1" t="n"/>
-      <c r="L62" s="1" t="n"/>
-      <c r="M62" s="1" t="n"/>
-      <c r="N62" s="1" t="n"/>
-      <c r="O62" s="1" t="n"/>
-      <c r="P62" s="1" t="n"/>
-      <c r="Q62" s="1" t="n"/>
-      <c r="R62" s="1" t="n"/>
-      <c r="S62" s="1" t="n"/>
-      <c r="T62" s="1" t="n"/>
-      <c r="U62" s="1" t="n"/>
-      <c r="V62" s="1" t="n"/>
-      <c r="W62" s="1" t="n"/>
-      <c r="X62" s="1" t="n"/>
-      <c r="Y62" s="1" t="n"/>
-      <c r="Z62" s="1" t="n"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" ht="24" customHeight="1">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
           <t>Лицо, ответственное за организацию питания</t>
         </is>
       </c>
-      <c r="C63" s="1" t="n"/>
-      <c r="D63" s="1" t="n"/>
-      <c r="E63" s="1" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>_____________</t>
         </is>
       </c>
-      <c r="F63" s="1" t="n"/>
       <c r="G63" s="1" t="n"/>
-      <c r="H63" s="1" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
       </c>
-      <c r="I63" s="1" t="n"/>
       <c r="J63" s="1" t="n"/>
-      <c r="K63" s="1" t="n"/>
-      <c r="L63" s="1" t="n"/>
-      <c r="M63" s="1" t="n"/>
-      <c r="N63" s="1" t="n"/>
-      <c r="O63" s="1" t="n"/>
-      <c r="P63" s="1" t="n"/>
-      <c r="Q63" s="1" t="n"/>
-      <c r="R63" s="1" t="n"/>
-      <c r="S63" s="1" t="n"/>
-      <c r="T63" s="1" t="n"/>
-      <c r="U63" s="1" t="n"/>
-      <c r="V63" s="1" t="n"/>
-      <c r="W63" s="1" t="n"/>
-      <c r="X63" s="1" t="n"/>
-      <c r="Y63" s="1" t="n"/>
-      <c r="Z63" s="1" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
-      <c r="E64" s="1" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
       </c>
-      <c r="F64" s="1" t="n"/>
       <c r="G64" s="1" t="n"/>
-      <c r="H64" s="1" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>(Ф.И.О.)</t>
         </is>
       </c>
-      <c r="I64" s="1" t="n"/>
       <c r="J64" s="1" t="n"/>
-      <c r="K64" s="1" t="n"/>
-      <c r="L64" s="1" t="n"/>
-      <c r="M64" s="1" t="n"/>
-      <c r="N64" s="1" t="n"/>
-      <c r="O64" s="1" t="n"/>
-      <c r="P64" s="1" t="n"/>
-      <c r="Q64" s="1" t="n"/>
-      <c r="R64" s="1" t="n"/>
-      <c r="S64" s="1" t="n"/>
-      <c r="T64" s="1" t="n"/>
-      <c r="U64" s="1" t="n"/>
-      <c r="V64" s="1" t="n"/>
-      <c r="W64" s="1" t="n"/>
-      <c r="X64" s="1" t="n"/>
-      <c r="Y64" s="1" t="n"/>
-      <c r="Z64" s="1" t="n"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" ht="24" customHeight="1">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
           <t>Заведующий производством предприятия общественного питания</t>
         </is>
       </c>
-      <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="n"/>
-      <c r="E65" s="1" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>_____________</t>
         </is>
       </c>
-      <c r="F65" s="1" t="n"/>
       <c r="G65" s="1" t="n"/>
-      <c r="H65" s="1" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
       </c>
-      <c r="I65" s="1" t="n"/>
       <c r="J65" s="1" t="n"/>
-      <c r="K65" s="1" t="n"/>
-      <c r="L65" s="1" t="n"/>
-      <c r="M65" s="1" t="n"/>
-      <c r="N65" s="1" t="n"/>
-      <c r="O65" s="1" t="n"/>
-      <c r="P65" s="1" t="n"/>
-      <c r="Q65" s="1" t="n"/>
-      <c r="R65" s="1" t="n"/>
-      <c r="S65" s="1" t="n"/>
-      <c r="T65" s="1" t="n"/>
-      <c r="U65" s="1" t="n"/>
-      <c r="V65" s="1" t="n"/>
-      <c r="W65" s="1" t="n"/>
-      <c r="X65" s="1" t="n"/>
-      <c r="Y65" s="1" t="n"/>
-      <c r="Z65" s="1" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
-      <c r="E66" s="1" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
       </c>
-      <c r="F66" s="1" t="n"/>
       <c r="G66" s="1" t="n"/>
-      <c r="H66" s="1" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>(Ф.И.О.)</t>
         </is>
       </c>
-      <c r="I66" s="1" t="n"/>
       <c r="J66" s="1" t="n"/>
-      <c r="K66" s="1" t="n"/>
-      <c r="L66" s="1" t="n"/>
-      <c r="M66" s="1" t="n"/>
-      <c r="N66" s="1" t="n"/>
-      <c r="O66" s="1" t="n"/>
-      <c r="P66" s="1" t="n"/>
-      <c r="Q66" s="1" t="n"/>
-      <c r="R66" s="1" t="n"/>
-      <c r="S66" s="1" t="n"/>
-      <c r="T66" s="1" t="n"/>
-      <c r="U66" s="1" t="n"/>
-      <c r="V66" s="1" t="n"/>
-      <c r="W66" s="1" t="n"/>
-      <c r="X66" s="1" t="n"/>
-      <c r="Y66" s="1" t="n"/>
-      <c r="Z66" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="28">
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -2394,6 +1350,17 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,13 @@
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Times new roman"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -48,17 +55,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,11 +620,8 @@
           <t>Директор</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>___________________________</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="3" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
       <c r="A3" s="1" t="n"/>
@@ -489,10 +632,9 @@
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>(сокращенное наименование
-образовательного учреждения)</t>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>(сокращенное наименование образовательного учреждения)</t>
         </is>
       </c>
     </row>
@@ -509,7 +651,7 @@
           <t>_____________</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
@@ -591,24 +733,33 @@
       <c r="J9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Отчёт о фактическом предоставленном бесплатном питании</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>за период с 01.05.2022 по 31.05.2022</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Отчёт о фактическом предоставленном бесплатном питании</t>
-        </is>
-      </c>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>(сокращенное наименование образовательного учреждения)</t>
         </is>
@@ -627,567 +778,568 @@
       <c r="J14" s="1" t="n"/>
     </row>
     <row r="15" ht="39" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>№ счета</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Класс</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>Ф.И. ребенка</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>Дни посещения</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>Остаток на
-начало месяца,
-руб.</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Поступило в
-текущем месяце
-на питание, руб.</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>Израсходовано в
-текущем месяце
-на питание, руб.</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>Остаток на
-конец месяца,
-руб.</t>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>Остаток на начало месяца, руб.</t>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t>Поступило в текущем месяце на питание, руб.</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>Израсходовано в текущем месяце на питание, руб.</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>Остаток на конец месяца, руб.</t>
         </is>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
-      <c r="E16" s="2" t="inlineStr">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>плановые</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="7" t="inlineStr">
         <is>
           <t>фактические</t>
         </is>
       </c>
+      <c r="G16" s="9" t="n"/>
+      <c r="H16" s="9" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="9" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="10" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="n"/>
-      <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="n"/>
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="10" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
-      <c r="G19" s="1" t="n"/>
-      <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
-      <c r="J19" s="1" t="n"/>
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="10" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="10" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n"/>
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="10" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="H22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n"/>
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="10" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
-      <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="10" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n"/>
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="10" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="1" t="n"/>
-      <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
-      <c r="J25" s="1" t="n"/>
+      <c r="A25" s="10" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="n"/>
-      <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
-      <c r="J26" s="1" t="n"/>
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="10" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
-      <c r="H27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
-      <c r="J27" s="1" t="n"/>
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="10" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="10" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
-      <c r="J28" s="1" t="n"/>
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+      <c r="I28" s="10" t="n"/>
+      <c r="J28" s="10" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n"/>
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="10" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
-      <c r="H30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n"/>
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="10" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="10" t="n"/>
+      <c r="J30" s="10" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
-      <c r="G31" s="1" t="n"/>
-      <c r="H31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
-      <c r="J31" s="1" t="n"/>
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="10" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="10" t="n"/>
+      <c r="J31" s="10" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
-      <c r="H32" s="1" t="n"/>
-      <c r="I32" s="1" t="n"/>
-      <c r="J32" s="1" t="n"/>
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="10" t="n"/>
+      <c r="F32" s="10" t="n"/>
+      <c r="G32" s="10" t="n"/>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="10" t="n"/>
+      <c r="J32" s="10" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-      <c r="H33" s="1" t="n"/>
-      <c r="I33" s="1" t="n"/>
-      <c r="J33" s="1" t="n"/>
+      <c r="A33" s="10" t="n"/>
+      <c r="B33" s="10" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="E33" s="10" t="n"/>
+      <c r="F33" s="10" t="n"/>
+      <c r="G33" s="10" t="n"/>
+      <c r="H33" s="10" t="n"/>
+      <c r="I33" s="10" t="n"/>
+      <c r="J33" s="10" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
-      <c r="G34" s="1" t="n"/>
-      <c r="H34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n"/>
+      <c r="A34" s="10" t="n"/>
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="n"/>
+      <c r="E34" s="10" t="n"/>
+      <c r="F34" s="10" t="n"/>
+      <c r="G34" s="10" t="n"/>
+      <c r="H34" s="10" t="n"/>
+      <c r="I34" s="10" t="n"/>
+      <c r="J34" s="10" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="n"/>
-      <c r="H35" s="1" t="n"/>
-      <c r="I35" s="1" t="n"/>
-      <c r="J35" s="1" t="n"/>
+      <c r="A35" s="10" t="n"/>
+      <c r="B35" s="10" t="n"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="10" t="n"/>
+      <c r="E35" s="10" t="n"/>
+      <c r="F35" s="10" t="n"/>
+      <c r="G35" s="10" t="n"/>
+      <c r="H35" s="10" t="n"/>
+      <c r="I35" s="10" t="n"/>
+      <c r="J35" s="10" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="n"/>
-      <c r="H36" s="1" t="n"/>
-      <c r="I36" s="1" t="n"/>
-      <c r="J36" s="1" t="n"/>
+      <c r="A36" s="10" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="10" t="n"/>
+      <c r="F36" s="10" t="n"/>
+      <c r="G36" s="10" t="n"/>
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="10" t="n"/>
+      <c r="J36" s="10" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="n"/>
-      <c r="H37" s="1" t="n"/>
-      <c r="I37" s="1" t="n"/>
-      <c r="J37" s="1" t="n"/>
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="10" t="n"/>
+      <c r="F37" s="10" t="n"/>
+      <c r="G37" s="10" t="n"/>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="10" t="n"/>
+      <c r="J37" s="10" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="n"/>
-      <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
-      <c r="J38" s="1" t="n"/>
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="10" t="n"/>
+      <c r="E38" s="10" t="n"/>
+      <c r="F38" s="10" t="n"/>
+      <c r="G38" s="10" t="n"/>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="10" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
-      <c r="G39" s="1" t="n"/>
-      <c r="H39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
-      <c r="J39" s="1" t="n"/>
+      <c r="A39" s="10" t="n"/>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="10" t="n"/>
+      <c r="G39" s="10" t="n"/>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="10" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
-      <c r="G40" s="1" t="n"/>
-      <c r="H40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n"/>
+      <c r="A40" s="10" t="n"/>
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="10" t="n"/>
+      <c r="E40" s="10" t="n"/>
+      <c r="F40" s="10" t="n"/>
+      <c r="G40" s="10" t="n"/>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="10" t="n"/>
+      <c r="J40" s="10" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
-      <c r="G41" s="1" t="n"/>
-      <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="10" t="n"/>
+      <c r="E41" s="10" t="n"/>
+      <c r="F41" s="10" t="n"/>
+      <c r="G41" s="10" t="n"/>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="10" t="n"/>
+      <c r="J41" s="10" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
-      <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="10" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="10" t="n"/>
+      <c r="J42" s="10" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
+      <c r="A43" s="10" t="n"/>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="10" t="n"/>
+      <c r="I43" s="10" t="n"/>
+      <c r="J43" s="10" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
-      <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
-      <c r="G44" s="1" t="n"/>
-      <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
+      <c r="A44" s="10" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="10" t="n"/>
+      <c r="D44" s="10" t="n"/>
+      <c r="E44" s="10" t="n"/>
+      <c r="F44" s="10" t="n"/>
+      <c r="G44" s="10" t="n"/>
+      <c r="H44" s="10" t="n"/>
+      <c r="I44" s="10" t="n"/>
+      <c r="J44" s="10" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
-      <c r="H45" s="1" t="n"/>
-      <c r="I45" s="1" t="n"/>
-      <c r="J45" s="1" t="n"/>
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="10" t="n"/>
+      <c r="D45" s="10" t="n"/>
+      <c r="E45" s="10" t="n"/>
+      <c r="F45" s="10" t="n"/>
+      <c r="G45" s="10" t="n"/>
+      <c r="H45" s="10" t="n"/>
+      <c r="I45" s="10" t="n"/>
+      <c r="J45" s="10" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
-      <c r="D46" s="1" t="n"/>
-      <c r="E46" s="1" t="n"/>
-      <c r="F46" s="1" t="n"/>
-      <c r="G46" s="1" t="n"/>
-      <c r="H46" s="1" t="n"/>
-      <c r="I46" s="1" t="n"/>
-      <c r="J46" s="1" t="n"/>
+      <c r="A46" s="10" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
+      <c r="E46" s="10" t="n"/>
+      <c r="F46" s="10" t="n"/>
+      <c r="G46" s="10" t="n"/>
+      <c r="H46" s="10" t="n"/>
+      <c r="I46" s="10" t="n"/>
+      <c r="J46" s="10" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="n"/>
-      <c r="E47" s="1" t="n"/>
-      <c r="F47" s="1" t="n"/>
-      <c r="G47" s="1" t="n"/>
-      <c r="H47" s="1" t="n"/>
-      <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="n"/>
+      <c r="A47" s="10" t="n"/>
+      <c r="B47" s="10" t="n"/>
+      <c r="C47" s="10" t="n"/>
+      <c r="D47" s="10" t="n"/>
+      <c r="E47" s="10" t="n"/>
+      <c r="F47" s="10" t="n"/>
+      <c r="G47" s="10" t="n"/>
+      <c r="H47" s="10" t="n"/>
+      <c r="I47" s="10" t="n"/>
+      <c r="J47" s="10" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
-      <c r="D48" s="1" t="n"/>
-      <c r="E48" s="1" t="n"/>
-      <c r="F48" s="1" t="n"/>
-      <c r="G48" s="1" t="n"/>
-      <c r="H48" s="1" t="n"/>
-      <c r="I48" s="1" t="n"/>
-      <c r="J48" s="1" t="n"/>
+      <c r="A48" s="10" t="n"/>
+      <c r="B48" s="10" t="n"/>
+      <c r="C48" s="10" t="n"/>
+      <c r="D48" s="10" t="n"/>
+      <c r="E48" s="10" t="n"/>
+      <c r="F48" s="10" t="n"/>
+      <c r="G48" s="10" t="n"/>
+      <c r="H48" s="10" t="n"/>
+      <c r="I48" s="10" t="n"/>
+      <c r="J48" s="10" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="n"/>
-      <c r="F49" s="1" t="n"/>
-      <c r="G49" s="1" t="n"/>
-      <c r="H49" s="1" t="n"/>
-      <c r="I49" s="1" t="n"/>
-      <c r="J49" s="1" t="n"/>
+      <c r="A49" s="10" t="n"/>
+      <c r="B49" s="10" t="n"/>
+      <c r="C49" s="10" t="n"/>
+      <c r="D49" s="10" t="n"/>
+      <c r="E49" s="10" t="n"/>
+      <c r="F49" s="10" t="n"/>
+      <c r="G49" s="10" t="n"/>
+      <c r="H49" s="10" t="n"/>
+      <c r="I49" s="10" t="n"/>
+      <c r="J49" s="10" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
-      <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="n"/>
-      <c r="F50" s="1" t="n"/>
-      <c r="G50" s="1" t="n"/>
-      <c r="H50" s="1" t="n"/>
-      <c r="I50" s="1" t="n"/>
-      <c r="J50" s="1" t="n"/>
+      <c r="A50" s="10" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="10" t="n"/>
+      <c r="D50" s="10" t="n"/>
+      <c r="E50" s="10" t="n"/>
+      <c r="F50" s="10" t="n"/>
+      <c r="G50" s="10" t="n"/>
+      <c r="H50" s="10" t="n"/>
+      <c r="I50" s="10" t="n"/>
+      <c r="J50" s="10" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="n"/>
-      <c r="F51" s="1" t="n"/>
-      <c r="G51" s="1" t="n"/>
-      <c r="H51" s="1" t="n"/>
-      <c r="I51" s="1" t="n"/>
-      <c r="J51" s="1" t="n"/>
+      <c r="A51" s="10" t="n"/>
+      <c r="B51" s="10" t="n"/>
+      <c r="C51" s="10" t="n"/>
+      <c r="D51" s="10" t="n"/>
+      <c r="E51" s="10" t="n"/>
+      <c r="F51" s="10" t="n"/>
+      <c r="G51" s="10" t="n"/>
+      <c r="H51" s="10" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="10" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="n"/>
-      <c r="E52" s="1" t="n"/>
-      <c r="F52" s="1" t="n"/>
-      <c r="G52" s="1" t="n"/>
-      <c r="H52" s="1" t="n"/>
-      <c r="I52" s="1" t="n"/>
-      <c r="J52" s="1" t="n"/>
+      <c r="A52" s="10" t="n"/>
+      <c r="B52" s="10" t="n"/>
+      <c r="C52" s="10" t="n"/>
+      <c r="D52" s="10" t="n"/>
+      <c r="E52" s="10" t="n"/>
+      <c r="F52" s="10" t="n"/>
+      <c r="G52" s="10" t="n"/>
+      <c r="H52" s="10" t="n"/>
+      <c r="I52" s="10" t="n"/>
+      <c r="J52" s="10" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n"/>
-      <c r="F53" s="1" t="n"/>
-      <c r="G53" s="1" t="n"/>
-      <c r="H53" s="1" t="n"/>
-      <c r="I53" s="1" t="n"/>
-      <c r="J53" s="1" t="n"/>
+      <c r="A53" s="10" t="n"/>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="10" t="n"/>
+      <c r="D53" s="10" t="n"/>
+      <c r="E53" s="10" t="n"/>
+      <c r="F53" s="10" t="n"/>
+      <c r="G53" s="10" t="n"/>
+      <c r="H53" s="10" t="n"/>
+      <c r="I53" s="10" t="n"/>
+      <c r="J53" s="10" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
-      <c r="D54" s="1" t="n"/>
-      <c r="E54" s="1" t="n"/>
-      <c r="F54" s="1" t="n"/>
-      <c r="G54" s="1" t="n"/>
-      <c r="H54" s="1" t="n"/>
-      <c r="I54" s="1" t="n"/>
-      <c r="J54" s="1" t="n"/>
+      <c r="A54" s="10" t="n"/>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="10" t="n"/>
+      <c r="D54" s="10" t="n"/>
+      <c r="E54" s="10" t="n"/>
+      <c r="F54" s="10" t="n"/>
+      <c r="G54" s="10" t="n"/>
+      <c r="H54" s="10" t="n"/>
+      <c r="I54" s="10" t="n"/>
+      <c r="J54" s="10" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="n"/>
-      <c r="E55" s="1" t="n"/>
-      <c r="F55" s="1" t="n"/>
-      <c r="G55" s="1" t="n"/>
-      <c r="H55" s="1" t="n"/>
-      <c r="I55" s="1" t="n"/>
-      <c r="J55" s="1" t="n"/>
+      <c r="A55" s="10" t="n"/>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="10" t="n"/>
+      <c r="D55" s="10" t="n"/>
+      <c r="E55" s="10" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
+      <c r="I55" s="10" t="n"/>
+      <c r="J55" s="10" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n"/>
-      <c r="E56" s="1" t="n"/>
-      <c r="F56" s="1" t="n"/>
-      <c r="G56" s="1" t="n"/>
-      <c r="H56" s="1" t="n"/>
-      <c r="I56" s="1" t="n"/>
-      <c r="J56" s="1" t="n"/>
+      <c r="A56" s="10" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="n"/>
+      <c r="D56" s="10" t="n"/>
+      <c r="E56" s="10" t="n"/>
+      <c r="F56" s="10" t="n"/>
+      <c r="G56" s="10" t="n"/>
+      <c r="H56" s="10" t="n"/>
+      <c r="I56" s="10" t="n"/>
+      <c r="J56" s="10" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="D57" s="11" t="inlineStr">
         <is>
           <t>Итого:</t>
         </is>
       </c>
-      <c r="E57" s="1" t="n"/>
-      <c r="F57" s="1" t="n"/>
-      <c r="G57" s="1" t="n"/>
-      <c r="H57" s="1" t="n"/>
-      <c r="I57" s="1" t="n"/>
-      <c r="J57" s="1" t="n"/>
+      <c r="E57" s="10" t="n"/>
+      <c r="F57" s="10" t="n"/>
+      <c r="G57" s="10" t="n"/>
+      <c r="H57" s="10" t="n"/>
+      <c r="I57" s="10" t="n"/>
+      <c r="J57" s="10" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -1262,13 +1414,13 @@
           <t>Лицо, ответственное за организацию питания</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t>_____________</t>
         </is>
       </c>
       <c r="G63" s="1" t="n"/>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="H63" s="4" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
@@ -1280,13 +1432,13 @@
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
       </c>
       <c r="G64" s="1" t="n"/>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>(Ф.И.О.)</t>
         </is>
@@ -1300,13 +1452,13 @@
           <t>Заведующий производством предприятия общественного питания</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t>_____________</t>
         </is>
       </c>
       <c r="G65" s="1" t="n"/>
-      <c r="H65" s="2" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>___________________________</t>
         </is>
@@ -1318,13 +1470,13 @@
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t>(подпись)</t>
         </is>
       </c>
       <c r="G66" s="1" t="n"/>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="H66" s="4" t="inlineStr">
         <is>
           <t>(Ф.И.О.)</t>
         </is>
